--- a/biology/Médecine/Interféron_alfa/Interféron_alfa.xlsx
+++ b/biology/Médecine/Interféron_alfa/Interféron_alfa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Interf%C3%A9ron_alfa</t>
+          <t>Interféron_alfa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'interféron alfa est un groupe de médicaments utilisés pour traiter un certain nombre de cancers et d'infections virales [1].
+L'interféron alfa est un groupe de médicaments utilisés pour traiter un certain nombre de cancers et d'infections virales .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Interf%C3%A9ron_alfa</t>
+          <t>Interféron_alfa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cancers pour lesquels il est utilisé comprennent le rein, le mélanome, le myélome multiple, la leucémie, le sarcome de Kaposi et le lymphome non hodgkinien [2]. Les types d'infections pour lesquelles il est utilisé comprennent l'hépatite B et l'hépatite C. [1] Il est généralement administré par injection sous la peau[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cancers pour lesquels il est utilisé comprennent le rein, le mélanome, le myélome multiple, la leucémie, le sarcome de Kaposi et le lymphome non hodgkinien . Les types d'infections pour lesquelles il est utilisé comprennent l'hépatite B et l'hépatite C.  Il est généralement administré par injection sous la peau.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Interf%C3%A9ron_alfa</t>
+          <t>Interféron_alfa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent la fièvre, les maux de tête, les douleurs articulaires, la fatigue, la perte de cheveux, la dépression, l'essoufflement et le faible nombre de globules blancs [3], plus loin effets secondaires peuvent inclure des problèmes de foie et une pancréatite [1],[3]  Il s'agit d'une cytokine normalement produite par le système immunitaire [1],il existe un certain nombre de types, notamment l'interféron alfa-2a, l'interféron alfa-2b et l'interféron alfa-n3 [1],[3] Ceux-ci peuvent être pégylés ( peginterféron alfa-2a et alfa-2b ) pour prolonger leur durée d'effet[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent la fièvre, les maux de tête, les douleurs articulaires, la fatigue, la perte de cheveux, la dépression, l'essoufflement et le faible nombre de globules blancs , plus loin effets secondaires peuvent inclure des problèmes de foie et une pancréatite ,  Il s'agit d'une cytokine normalement produite par le système immunitaire ,il existe un certain nombre de types, notamment l'interféron alfa-2a, l'interféron alfa-2b et l'interféron alfa-n3 , Ceux-ci peuvent être pégylés ( peginterféron alfa-2a et alfa-2b ) pour prolonger leur durée d'effet.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Interf%C3%A9ron_alfa</t>
+          <t>Interféron_alfa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'interféron alfa a été approuvé pour un usage médical aux États-Unis dans les années 1980 pour le cancer et dans les années 1990 pour l'hépatite B et C. La version pégylée est devenue disponible en 2000. L'interféron alfa-2a n'est plus fabriqué. Au Royaume-Uni, le peginterféron alfa-2a est disponible dans le commerce[1],[4],[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'interféron alfa a été approuvé pour un usage médical aux États-Unis dans les années 1980 pour le cancer et dans les années 1990 pour l'hépatite B et C. La version pégylée est devenue disponible en 2000. L'interféron alfa-2a n'est plus fabriqué. Au Royaume-Uni, le peginterféron alfa-2a est disponible dans le commerce
 </t>
         </is>
       </c>
